--- a/data/hgj 要失业了.xlsx
+++ b/data/hgj 要失业了.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1375BDAC-D632-4FD7-A330-1D6F03627746}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2C7538-1E0B-4480-A3F5-8DF2E40AF8F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通信电子" sheetId="12" r:id="rId1"/>
-    <sheet name="芯片" sheetId="11" r:id="rId2"/>
-    <sheet name="电商" sheetId="4" r:id="rId3"/>
-    <sheet name="制造业" sheetId="13" r:id="rId4"/>
+    <sheet name="制造业" sheetId="13" r:id="rId2"/>
+    <sheet name="芯片" sheetId="11" r:id="rId3"/>
+    <sheet name="电商" sheetId="4" r:id="rId4"/>
     <sheet name="互联网" sheetId="16" r:id="rId5"/>
     <sheet name="直播视频" sheetId="14" r:id="rId6"/>
     <sheet name="人工智能" sheetId="18" r:id="rId7"/>
@@ -19,14 +19,14 @@
     <sheet name="module" sheetId="20" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">电商!$A$1:$J$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">电商!$A$1:$J$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">互联网!$A$1:$J$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">人工智能!$A$1:$J$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">通信电子!$A$1:$J$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">芯片!$A$1:$J$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">芯片!$A$1:$J$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">银行!$A$1:$J$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">直播视频!$A$1:$J$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">制造业!$A$1:$J$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">制造业!$A$1:$J$24</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="357">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -230,10 +230,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不影响秋招，已经注册好了账号，但是没有投递</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>计算机视觉工程师</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -636,18 +632,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>计算机视觉工程师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>上海</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>看着还是适合</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>亿智电子</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -688,10 +676,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>赶快投递一下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>抓紧投递一下</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -895,10 +879,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>这个在牛客中投递</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>投递（8-25）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -907,10 +887,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>投递（8-15）-笔试（8-27）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>投递（8-25）-错过了笔试（8-28）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -935,27 +911,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>投递（8-25）-测评（8-28）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尽快投递，填了资料，但是提交的时候没有反应，放弃投递</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>quit</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>投递（8-29）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提前批挂了，顺延到正式批，正式批投递不了。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新简历（8-29）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1034,10 +994,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>投递（8-30）-测评（8-31）-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>联影医疗</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1050,22 +1006,388 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>投递（9-1）-</t>
+  </si>
+  <si>
+    <t>投递（9-1）-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1）H开头的密码，username：hgj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度学习算法工程师（广州）</t>
+  </si>
+  <si>
+    <t>投递（8-10）- 笔试（8-14）-挂简历（9-1）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-2看了一下，还是没有消息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递（8-25）-需要做测评（没来得及做就挂了）-NG（8-29）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTAAYHi， 9月1开了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未投</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有算法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式批</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSdWAU6k， 9月1开了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝月亮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比亚迪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长安汽车</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有ai岗位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能算法开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cv算法工程师（服务线）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个比较合适</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能终端-视觉算法工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>就招两个人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚控科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递（9-1）-测评（9-3）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递（8-30）-笔试（9-4）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递（8-30）-笔试（9-3）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>投递（8-17）-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测评（9-3）-笔试（9-4）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>填了资料，但是提交的时候没有反应，放弃投递</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递（9-5）-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛，并没有指定具体的岗位，奇怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递的时候，没有给出具体的岗位。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递（9-5）-NG（9-5）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让转c++开发。拒绝。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠海莫界科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法工程师（交互）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正式批</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在牛客投递的，看了一下官网，好像还没有相应的岗位。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥比中光</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行深智能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未投</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度学习算法工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>衫川机器人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网上没有，但是牛客上有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市众星智能设备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递（9-5）【牛客】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递（9-5）【牛客】-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个不是校招的，现在还是社招。没有投递</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递（9-6）-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递（9-1）-挂简历（9-6）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是做汽车的，投了。挂：简历不匹配。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投了，但是现在查不到消息。2022年9月6日14:41:24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前批挂了，进入了人才储备库，正式批不能进行投递了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新简历（9-6）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递（8-30）-挂简历（9-6）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递（8-30）-更新简历（9-6）-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递（8-25）-更新简历（9-6）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>才发现中兴好像是没有投递成功？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要从岗位申请的地方登录。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递（8-25）-挂简历（9-6）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查不了进度的。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还在筛选-2022年9月6日15:48:36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递（8-29）-挂简历（9-8）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安克创新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法工程师（视觉）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递（9-7）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法工程师-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱投递：graduates@intellif.com (这周之前投递出去，好点的话，中秋之后就可以面试了）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国联通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国电子科技集团第38所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咪咕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行广州分行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前批</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行研发中心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行信用卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新浪微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>远景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>上海</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>投递（9-1）-</t>
-  </si>
-  <si>
-    <t>投递（9-1）-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1）H开头的密码，username：hgj</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集度</t>
+    <t>创维数字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锐明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视觉算法工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙湖集团</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机视觉</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1073,7 +1395,85 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>这个是做汽车的，投了。</t>
+    <t>联易融</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV算法工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州趣丸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智己汽车</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华勤技术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法工程师-自动化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙图智能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个看着有很多的岗位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器、深度学习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正浩创新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开立医疗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>投递（9-6）-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>测评</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（9-7）</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1100,12 +1500,6 @@
       </rPr>
       <t>（9-1）-</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>投递（9-1）-</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1115,193 +1509,39 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>需要做测评</t>
+      <t>笔试（9-15 7-8点）后调到个时间点</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>深度学习算法工程师（广州）</t>
-  </si>
-  <si>
-    <t>投递（8-10）- 笔试（8-14）-挂简历（9-1）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9-2看了一下，还是没有消息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>投递（8-25）-需要做测评（没来得及做就挂了）-NG（8-29）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTAAYHi， 9月1开了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未投</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有算法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>正式批</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSdWAU6k， 9月1开了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝月亮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>比亚迪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>长安汽车</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有ai岗位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重庆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工智能算法开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cv算法工程师（服务线）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>广州</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个比较合适</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有算法的岗位，但是需要完善简历之后才能看</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新华三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能终端-视觉算法工程师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>就招两个人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚控科技</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>算法工程师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>投递（9-1）-</t>
+      <t>投递（9-5）-</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>需要做测评</t>
+      <t>需要测评（9-8）</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>投递（8-17）-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要笔试、测评</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4号前</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>投递（8-30）-</t>
+      <t>投递（8-30）-测评（8-31）-</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>笔试（9-3 7点</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>投递（8-30）-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>需要笔试9-3 9-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2个钟</t>
+      <t>笔试（9-8）</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1319,6 +1559,176 @@
       </rPr>
       <t>测评（9-2）</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一面（9-6）-上海部捞，拒（9-8）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄武科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在牛客这里投了，有hR找上门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递（9-8）【牛客】-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>投递（9 -6）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>笔试（9-8）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>投递（8-30）-更新简历（9-6）-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要笔试（12号之前）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>投递（8-25）-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要测评（9-30之前）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>投递（8-15）-笔试（8-27）-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面试（9-16:17:30）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>投递（8-25）-测评（8-28）-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要笔试（9-14）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>投递（8-25）-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一面（9-14:10:00）15 minutes</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>投递（8-30）-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>笔试（9-15:7-8点半）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试和三一冲突了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递（8-25）-挂简历（9-9）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1488,7 +1898,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1520,19 +1930,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1553,7 +1957,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1652,83 +2056,120 @@
     <xf numFmtId="58" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2042,8 +2483,8 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2057,7 +2498,7 @@
     <col min="7" max="7" width="10.375" style="8" customWidth="1"/>
     <col min="8" max="8" width="10.25" style="8" customWidth="1"/>
     <col min="9" max="9" width="72.25" style="8" customWidth="1"/>
-    <col min="10" max="10" width="39.5" style="41" customWidth="1"/>
+    <col min="10" max="10" width="39.5" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -2089,8 +2530,8 @@
       <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="38" t="s">
-        <v>67</v>
+      <c r="J1" s="36" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="15">
@@ -2100,17 +2541,17 @@
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>65</v>
+      <c r="C2" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>10</v>
@@ -2121,406 +2562,410 @@
       <c r="I2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="37" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="12">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>65</v>
+        <v>97</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="J3" s="59" t="s">
-        <v>253</v>
+        <v>155</v>
+      </c>
+      <c r="J3" s="56" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>65</v>
+      <c r="C4" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>222</v>
+        <v>263</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="58"/>
+      <c r="J5" s="39" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15">
+      <c r="A6" s="12">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="16" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A7" s="63">
+        <v>4</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="F7" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="61">
+        <v>44796</v>
+      </c>
+      <c r="J7" s="71" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="12">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" s="14">
-        <v>44796</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="12">
-        <v>4</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="14">
+      <c r="D8" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="48">
         <v>44789</v>
       </c>
-      <c r="J6" s="41" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A7" s="12">
-        <v>5</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
-      <c r="A8" s="12">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15">
+      <c r="I8" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="12">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="16" customFormat="1">
+      <c r="A10" s="63">
+        <v>9</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="12">
-        <v>8</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="G10" s="61">
+        <v>44790</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="14">
-        <v>44790</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" s="40" t="s">
-        <v>220</v>
+      <c r="J10" s="71" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>207</v>
+        <v>142</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="J12" s="41" t="s">
-        <v>217</v>
+        <v>213</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="12">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>115</v>
-      </c>
       <c r="E13" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="K13" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="J13" s="40" t="s">
-        <v>207</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="12">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" s="14">
         <v>44789</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="J14" s="40" t="s">
-        <v>207</v>
+        <v>118</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="12">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="J15" s="42" t="s">
-        <v>226</v>
+        <v>217</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="13.5" customHeight="1">
       <c r="A16" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="16" customFormat="1">
+      <c r="A17" s="63">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="J16" s="41" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="12">
-        <v>19</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="I17" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>126</v>
+      <c r="J17" s="45" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>15</v>
@@ -2528,117 +2973,123 @@
       <c r="F18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="41" t="s">
-        <v>229</v>
+      <c r="J18" s="39" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="12">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>306</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>210</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="12">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="12">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="12">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="12">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="12">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="12">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="12">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="12">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="12">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2668,8 +3119,8 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" location="/CampusIntroduce?id=7" xr:uid="{BDB4C804-69C5-4D9C-BD4E-3FEC489E23B0}"/>
-    <hyperlink ref="D8" r:id="rId2" xr:uid="{31037CE2-FA36-4DDD-BE3E-DD7221D4521D}"/>
-    <hyperlink ref="D9" r:id="rId3" xr:uid="{4557D44B-8D96-4888-8E78-A14D0106B39A}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{31037CE2-FA36-4DDD-BE3E-DD7221D4521D}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{4557D44B-8D96-4888-8E78-A14D0106B39A}"/>
     <hyperlink ref="B10" r:id="rId4" xr:uid="{6A3F533D-1B80-4A91-8AC5-66A5F9FC74EF}"/>
     <hyperlink ref="D10" r:id="rId5" location="/job/c36aa77c-3eb8-4888-83de-4bf19abde585" xr:uid="{4F991FA8-244D-4D0B-A73F-A7288F4382A8}"/>
     <hyperlink ref="B18" r:id="rId6" xr:uid="{ED1A11A7-6302-4B79-A908-D22A74FEC5E9}"/>
@@ -2683,12 +3134,12 @@
     <hyperlink ref="B15" r:id="rId14" xr:uid="{01C2F58F-DC7A-41AC-B41E-3415B526EF00}"/>
     <hyperlink ref="B16" r:id="rId15" xr:uid="{67FAD2E2-D007-4F68-82BE-728EF4FB933B}"/>
     <hyperlink ref="D4" r:id="rId16" xr:uid="{93A1367D-FD26-4BA2-A371-02061D79EEB8}"/>
-    <hyperlink ref="B5" r:id="rId17" xr:uid="{9480507B-D7EF-446B-8B22-200725C35FE8}"/>
-    <hyperlink ref="D5" r:id="rId18" xr:uid="{B246B155-CAAB-4E7C-89D7-DEA8DEB65945}"/>
-    <hyperlink ref="D6" r:id="rId19" location="/jobs?project=100022014&amp;zhineng=72363&amp;page=1" xr:uid="{8916B2AB-1E23-44DC-B8DC-5B30B6A0906A}"/>
-    <hyperlink ref="B6" r:id="rId20" xr:uid="{FCE1BBD4-8A9D-46D4-A442-4D9C3D4F89F3}"/>
-    <hyperlink ref="B7" r:id="rId21" xr:uid="{217C0840-FF25-406C-9CF0-978FD2378643}"/>
-    <hyperlink ref="D7" r:id="rId22" xr:uid="{387B7D7A-61C3-408B-BE05-5BDF3E5D6B3B}"/>
+    <hyperlink ref="B7" r:id="rId17" xr:uid="{9480507B-D7EF-446B-8B22-200725C35FE8}"/>
+    <hyperlink ref="D7" r:id="rId18" xr:uid="{B246B155-CAAB-4E7C-89D7-DEA8DEB65945}"/>
+    <hyperlink ref="D8" r:id="rId19" location="/jobs?project=100022014&amp;zhineng=72363&amp;page=1" xr:uid="{8916B2AB-1E23-44DC-B8DC-5B30B6A0906A}"/>
+    <hyperlink ref="B8" r:id="rId20" xr:uid="{FCE1BBD4-8A9D-46D4-A442-4D9C3D4F89F3}"/>
+    <hyperlink ref="B5" r:id="rId21" xr:uid="{217C0840-FF25-406C-9CF0-978FD2378643}"/>
+    <hyperlink ref="D5" r:id="rId22" xr:uid="{387B7D7A-61C3-408B-BE05-5BDF3E5D6B3B}"/>
     <hyperlink ref="B3" r:id="rId23" xr:uid="{A6C4752B-661B-4E35-87DB-3FEC1AEBAAA8}"/>
     <hyperlink ref="D3" r:id="rId24" xr:uid="{2E63F264-06A2-4736-A0B8-942F60495B69}"/>
     <hyperlink ref="D17" r:id="rId25" location="/job/4f333fd4-67bd-4baa-8d34-6c367cf90f1b" xr:uid="{FF3DB74C-B32A-4EB9-B118-E7D2BB0BAEFE}"/>
@@ -2704,12 +3155,1181 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2361B81E-CF52-4B54-A196-F4E0C8D416C4}">
+  <dimension ref="A1:K46"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9" style="8"/>
+    <col min="4" max="4" width="22.375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="8" customWidth="1"/>
+    <col min="9" max="9" width="63" style="8" customWidth="1"/>
+    <col min="10" max="10" width="54.75" style="39" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="16.5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="18" customHeight="1">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="47"/>
+    </row>
+    <row r="4" spans="1:11" ht="15">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="G5" s="48">
+        <v>44770</v>
+      </c>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47" t="s">
+        <v>269</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="K5" s="47"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="8">
+        <v>10</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="50" t="s">
+        <v>343</v>
+      </c>
+      <c r="K8" s="47"/>
+    </row>
+    <row r="9" spans="1:11" ht="15">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="16" customFormat="1">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="16" customFormat="1">
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="14">
+        <v>44735</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="47" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="48">
+        <v>44804</v>
+      </c>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" ht="15">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="47" customFormat="1">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="I22" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" s="47" customFormat="1">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="I23" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="J23" s="50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="J24" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" s="47"/>
+    </row>
+    <row r="25" spans="1:11" s="47" customFormat="1">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="G25" s="48">
+        <v>44805</v>
+      </c>
+      <c r="I25" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="J25" s="50" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>265</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="J26" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="K26" s="47"/>
+    </row>
+    <row r="27" spans="1:11" s="47" customFormat="1">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="G27" s="48">
+        <v>44802</v>
+      </c>
+      <c r="I27" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="J27" s="50" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="47" customFormat="1">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J28" s="39" t="s">
+        <v>286</v>
+      </c>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="1:11" s="47" customFormat="1">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J29" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="1:11" s="47" customFormat="1">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" s="14">
+        <v>44775</v>
+      </c>
+      <c r="J31" s="39" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="J32" s="39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="I34" s="58" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="50"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="50"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J24" xr:uid="{810C05E9-B4A5-4012-926B-59988C1A6793}"/>
+  <sortState ref="A2:K46">
+    <sortCondition ref="C1"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 D8" xr:uid="{EE1EE90C-8B0E-41AB-B40F-AB84CE5669BD}">
+      <formula1>"未投, 投递, 笔试, 面试, offer, NG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{080349A8-D3DE-4B2D-8B0F-AA35DD08C2CF}">
+      <formula1>"正式批,提前批"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{34F333EE-00A1-4A58-9439-3F2ADB31255A}">
+      <formula1>"未开,未投,投递,笔试,面试,offer,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1" xr:uid="{C989D8CF-AA98-4D52-8600-C6A64515DD46}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{260B01BF-DF83-4A36-B101-89A3684539E5}"/>
+    <hyperlink ref="K9" r:id="rId3" xr:uid="{0861A510-189A-4C5C-851F-9F9994ABBBB3}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{1CD047F7-C03A-48FC-A611-C2470BF7D11A}"/>
+    <hyperlink ref="D13" r:id="rId5" xr:uid="{909D4784-0B45-4731-8ECC-A0F6454A470D}"/>
+    <hyperlink ref="D19" r:id="rId6" xr:uid="{37EC7794-D56F-4514-B952-33897469D578}"/>
+    <hyperlink ref="D20" r:id="rId7" xr:uid="{7D57DF09-F123-4686-A915-E870AADF219C}"/>
+    <hyperlink ref="D21" r:id="rId8" location="/job/1d0e3c75-8545-4d41-8e2a-4a1512b1e3e5" xr:uid="{A655E564-E864-46CB-9115-E124EF87E32F}"/>
+    <hyperlink ref="B20" r:id="rId9" xr:uid="{343E4238-98EE-45F0-A999-34D59CAED1E9}"/>
+    <hyperlink ref="B33" r:id="rId10" xr:uid="{55E50B49-B752-4CE6-AE56-F066E353C474}"/>
+    <hyperlink ref="D10" r:id="rId11" location="/job/1654cd4f-081d-4f36-8855-3e30471733a1" xr:uid="{D366F649-A2E8-41D6-A774-A72F06630E30}"/>
+    <hyperlink ref="B10" r:id="rId12" location="/?anchorName=2761416898&amp;sourceToken=" xr:uid="{74BBD345-DDA9-41FC-97A3-FAF535EEDCCC}"/>
+    <hyperlink ref="D2" r:id="rId13" xr:uid="{D3227471-765C-4EB6-8BBB-D6E7D8CC9CE3}"/>
+    <hyperlink ref="D23" r:id="rId14" xr:uid="{14D08B03-D243-466E-BCB6-BFC258EC3528}"/>
+    <hyperlink ref="B23" r:id="rId15" xr:uid="{B5C91043-FFA2-482D-9247-78CA55E2F0AD}"/>
+    <hyperlink ref="B22" r:id="rId16" xr:uid="{E0E4A2A5-80B5-4FE0-BC26-F3274841E5C5}"/>
+    <hyperlink ref="D22" r:id="rId17" xr:uid="{6385D3F7-E7D4-426B-9E6A-4DF0EF5F68AC}"/>
+    <hyperlink ref="D3" r:id="rId18" location="/job/35b92760-03fa-4ce8-be61-8dacbf0ceb71" xr:uid="{12AB5E0D-8BA1-43F3-A7D7-A3EDF2D7C3F5}"/>
+    <hyperlink ref="B24" r:id="rId19" location="/" xr:uid="{7B09DA83-9B58-469F-8EF7-774335104AAA}"/>
+    <hyperlink ref="D15" r:id="rId20" xr:uid="{44C7B1AE-DA1C-413E-825B-1BCB3485F161}"/>
+    <hyperlink ref="D36" r:id="rId21" location="/job/6b6f2ba3-7261-4faa-93b9-244ca3c489e8" xr:uid="{490942B3-7083-49E4-A0BB-5369BA4CD4D4}"/>
+    <hyperlink ref="D35" r:id="rId22" location="/job/7785f274-01a6-4133-8fe1-bcc61f1ea45e" xr:uid="{032F124A-D7F9-41DC-95D7-92FF1BB49CB2}"/>
+    <hyperlink ref="B7" r:id="rId23" location="/" xr:uid="{CFC24B0D-BE78-4A21-8A47-EFF3D7CBA86B}"/>
+    <hyperlink ref="B17" r:id="rId24" xr:uid="{AB3CEDA7-A629-4211-94E9-85899C780EBB}"/>
+    <hyperlink ref="D12" r:id="rId25" xr:uid="{09C935C5-8AE5-4E34-8805-2095A1CE29B2}"/>
+    <hyperlink ref="D18" r:id="rId26" xr:uid="{A7916861-D24F-4516-84D2-AF0E8200C9AB}"/>
+    <hyperlink ref="D17" r:id="rId27" xr:uid="{D22C1A08-C384-417D-9A77-FB2A0E3DA9BB}"/>
+    <hyperlink ref="D16" r:id="rId28" xr:uid="{1BAF7D94-95CB-4826-93E5-754B6F2C1935}"/>
+    <hyperlink ref="D7" r:id="rId29" location="/candidateHome/applications" xr:uid="{89A79E5B-3F7A-4FE9-9893-04E7BB8D63AB}"/>
+    <hyperlink ref="D11" r:id="rId30" location="/job/7f37ff9b-55a8-40ba-9850-0985052682dd/campus_apply/thanks?jobId=7f37ff9b-55a8-40ba-9850-0985052682dd&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;candidateName=%E9%BB%84%E5%85%89%E7%A7%AF&amp;candidateId=365838875" xr:uid="{BA0DD2A1-C1A0-4829-9F5A-5E75021C97C8}"/>
+    <hyperlink ref="D8" r:id="rId31" xr:uid="{913919DA-F83E-46D1-8580-D65E6F9A36F5}"/>
+    <hyperlink ref="D6" r:id="rId32" location="/job/d8e83b4a-03ec-4ba7-9877-f28e890bfb3f" xr:uid="{5C6655C9-F6A0-4C1C-9925-361C509F60C7}"/>
+    <hyperlink ref="D24" r:id="rId33" location="/job/1f4f4624-b83e-4e60-8c66-4b543dd4a36b" xr:uid="{DC38FD47-42B4-422A-86A6-9CB074109A1A}"/>
+    <hyperlink ref="D27" r:id="rId34" xr:uid="{8CF75A7A-BC40-4BB5-9149-6D06C48D3612}"/>
+    <hyperlink ref="B25" r:id="rId35" location="/bluemoon/campus" xr:uid="{00D408A6-22ED-4230-9A71-4BD5568FA644}"/>
+    <hyperlink ref="D25" r:id="rId36" location="/bluemoon/campus/positionDetail?positionId=497569CACABF4CC085524C25C1DC773C" xr:uid="{68761D9C-45DF-4ACD-A74C-C76CC473D46A}"/>
+    <hyperlink ref="B26" r:id="rId37" xr:uid="{007455D3-18D7-483D-908E-1EBA253D727F}"/>
+    <hyperlink ref="D5" r:id="rId38" location="/job/4ed388ea-c5b7-484b-b318-ee2130a86305" xr:uid="{BE10D55F-39EB-472C-BF88-F2D753E96F24}"/>
+    <hyperlink ref="D28" r:id="rId39" xr:uid="{2CC6E8BE-A863-497C-923E-253BF016E046}"/>
+    <hyperlink ref="D30" r:id="rId40" xr:uid="{031FAC33-7F96-48FC-BE75-0B956CA8C2B0}"/>
+    <hyperlink ref="D34" r:id="rId41" location="/joinUs/job-detail?jobId=15" xr:uid="{4740F4D1-F501-458B-AFEB-52B4E05F0F34}"/>
+    <hyperlink ref="D29" r:id="rId42" xr:uid="{987BE292-72E5-4EC9-B653-5F8E7CF18DED}"/>
+    <hyperlink ref="D31" r:id="rId43" location="/job/1e825d67-b5ef-4a36-a120-bab20ff86c1f" xr:uid="{EA2EA65D-A83D-4ACA-BEBA-A63942909941}"/>
+    <hyperlink ref="B32" r:id="rId44" xr:uid="{D0A3BBBF-6867-4948-BF3C-1F90BF4CB293}"/>
+    <hyperlink ref="D32" r:id="rId45" xr:uid="{C8BA3EC7-6375-4602-A446-4C80E67ABFA4}"/>
+    <hyperlink ref="D38" r:id="rId46" location="/job/3ada1794-b69f-43ab-9787-5141d4e2aded" xr:uid="{6F659062-96CB-4F76-8417-5A8BE85960F5}"/>
+    <hyperlink ref="D39" r:id="rId47" xr:uid="{9BBA191B-5FBA-40C4-A5FA-A33D2F38BBA2}"/>
+    <hyperlink ref="D40" r:id="rId48" xr:uid="{53B1767F-7956-404C-AA41-8F91630AD7E8}"/>
+    <hyperlink ref="D41" r:id="rId49" location="/job/a80d4917-9bde-4d63-9a3c-98cdfe75839d" xr:uid="{DFB5C1CE-7DE0-4E98-A8D4-CAE50E9D6C5D}"/>
+    <hyperlink ref="D43" r:id="rId50" xr:uid="{CBE4A168-97F2-420D-9341-EC2BBC58F97B}"/>
+    <hyperlink ref="D44" r:id="rId51" xr:uid="{E08515C6-1393-4689-AE7D-4D971133BE4B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId52"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A28D41-23ED-4498-B176-DDAAC44C8AC6}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2723,7 +4343,7 @@
     <col min="7" max="7" width="10.375" style="19" customWidth="1"/>
     <col min="8" max="8" width="10.25" style="19" customWidth="1"/>
     <col min="9" max="9" width="72.25" style="19" customWidth="1"/>
-    <col min="10" max="10" width="39.5" style="40" customWidth="1"/>
+    <col min="10" max="10" width="39.5" style="38" customWidth="1"/>
     <col min="11" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -2755,75 +4375,72 @@
       <c r="I1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="44" t="s">
-        <v>67</v>
+      <c r="J1" s="42" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A2" s="31">
-        <v>7</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>65</v>
+      <c r="A2" s="60">
+        <v>1</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>64</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G2" s="31"/>
       <c r="H2" s="33">
         <v>44801</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="J2" s="45" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="19">
-        <v>1</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="J2" s="43" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A3" s="60">
+        <v>5</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>31</v>
+      <c r="D3" s="15" t="s">
+        <v>193</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A4" s="19">
-        <v>2</v>
+        <v>194</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="66" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A4" s="60">
+        <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>63</v>
+      <c r="C4" s="35" t="s">
+        <v>64</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>15</v>
@@ -2834,181 +4451,195 @@
       <c r="F4" s="19" t="s">
         <v>19</v>
       </c>
+      <c r="G4" s="19"/>
       <c r="H4" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="19">
+        <v>72</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A5" s="66">
+        <v>2</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A6" s="60">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B6" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17.25">
-      <c r="A6" s="19">
-        <v>8</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>207</v>
+      <c r="I6" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25">
-      <c r="A7" s="19">
-        <v>9</v>
+      <c r="A7" s="60">
+        <v>6</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>207</v>
+        <v>190</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="31" customFormat="1" ht="17.25">
-      <c r="A8" s="19">
-        <v>10</v>
+      <c r="A8" s="60">
+        <v>7</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
-      <c r="J8" s="40" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="12">
+      <c r="J8" s="38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="66" customFormat="1">
+      <c r="A9" s="66">
+        <v>8</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="61">
+        <v>44799</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="72" t="s">
+        <v>355</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="60">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="8" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A11" s="60">
         <v>10</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="14">
-        <v>44799</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="41" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="19">
-        <v>6</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A11" s="19">
-        <v>5</v>
-      </c>
       <c r="B11" s="26" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="J11" s="40"/>
+        <v>146</v>
+      </c>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="19">
@@ -3136,7 +4767,7 @@
     <sortCondition ref="C2"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A11:XFD11">
+  <conditionalFormatting sqref="B11:XFD11">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>$C:$C=NG</formula>
     </cfRule>
@@ -3153,15 +4784,15 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{88C7AD30-E1AD-493A-BB7C-EC56D413D312}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{43FB1F60-BA31-4E24-9A0E-FAF4594E6558}"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{88C7AD30-E1AD-493A-BB7C-EC56D413D312}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{43FB1F60-BA31-4E24-9A0E-FAF4594E6558}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{196F3C17-A71D-42EF-AC14-ADBD402B0FE2}"/>
-    <hyperlink ref="D5" r:id="rId4" location="/job/f53a501d-3abd-4401-9728-5a9734cbab33" xr:uid="{15B158A1-7FA9-45BA-918B-D3405491924A}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{1A2ADA8F-D7A0-4946-BD4D-20DA50601007}"/>
+    <hyperlink ref="D6" r:id="rId4" location="/job/f53a501d-3abd-4401-9728-5a9734cbab33" xr:uid="{15B158A1-7FA9-45BA-918B-D3405491924A}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{1A2ADA8F-D7A0-4946-BD4D-20DA50601007}"/>
     <hyperlink ref="B11" r:id="rId6" xr:uid="{ED613144-A6FF-4C80-883E-5E503FDA4D75}"/>
     <hyperlink ref="D4" r:id="rId7" xr:uid="{C71D6E2B-3D48-45F4-A334-F9F591FC3278}"/>
     <hyperlink ref="D7" r:id="rId8" xr:uid="{2F5DF4CA-4EFA-4577-92A3-03396CC9F25F}"/>
-    <hyperlink ref="D6" r:id="rId9" xr:uid="{5256841B-3ADF-4836-B254-3DA101FBA7FB}"/>
+    <hyperlink ref="D3" r:id="rId9" xr:uid="{5256841B-3ADF-4836-B254-3DA101FBA7FB}"/>
     <hyperlink ref="D8" r:id="rId10" location="/job/15abff01-d922-4283-b31f-3947466f1a7b" xr:uid="{D44E74FA-57F0-4785-931B-9B29A8614AA8}"/>
     <hyperlink ref="D2" r:id="rId11" xr:uid="{6D0C71A8-EB8C-4145-BFBA-4C9F4F739D43}"/>
     <hyperlink ref="B9" r:id="rId12" xr:uid="{CBB112E4-A3CE-43B9-9A68-AE28377F4117}"/>
@@ -3171,13 +4802,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EE9B70-7F70-4E79-B732-0EC6903C2C34}">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3191,7 +4822,7 @@
     <col min="7" max="7" width="13.25" style="8" customWidth="1"/>
     <col min="8" max="8" width="10.25" style="8" customWidth="1"/>
     <col min="9" max="9" width="72.25" style="8" customWidth="1"/>
-    <col min="10" max="10" width="39.5" style="55" customWidth="1"/>
+    <col min="10" max="10" width="39.5" style="53" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -3223,8 +4854,8 @@
       <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="54" t="s">
-        <v>67</v>
+      <c r="J1" s="52" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3234,20 +4865,20 @@
       <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="57" t="s">
-        <v>65</v>
+      <c r="C2" s="55" t="s">
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="I2" s="46" t="s">
-        <v>230</v>
+        <v>142</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3257,98 +4888,102 @@
       <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="58" t="s">
-        <v>64</v>
+      <c r="C3" s="57" t="s">
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="J3" s="56" t="s">
-        <v>45</v>
+        <v>237</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="47">
+        <v>6</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="48">
+        <v>44781</v>
+      </c>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47" t="s">
+        <v>222</v>
+      </c>
+      <c r="J5" s="64" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="47" customFormat="1">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="J4" s="55" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="8">
-        <v>5</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="8">
-        <v>6</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>104</v>
-      </c>
       <c r="E6" s="8" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="14">
-        <v>44781</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="J6" s="55" t="s">
-        <v>237</v>
+        <v>168</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="53" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3356,61 +4991,61 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58" t="s">
-        <v>254</v>
+      <c r="B8" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="58" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>258</v>
-      </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58" t="s">
-        <v>259</v>
+      <c r="B9" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3560,10 +5195,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J38" xr:uid="{810C05E9-B4A5-4012-926B-59988C1A6793}">
-    <sortState ref="A2:J7">
+    <sortState ref="A2:J38">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
+  <sortState ref="A2:J39">
+    <sortCondition ref="C1"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{72AC622B-0E0E-47E1-8065-8646D6F416D8}">
@@ -3580,22 +5218,23 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{54C2297F-A814-4570-B482-939136E3D4F2}"/>
     <hyperlink ref="B2" r:id="rId2" location="/CampusRecruiting" xr:uid="{41C6DA27-D91A-4364-A000-AB9FC65A4F26}"/>
     <hyperlink ref="D2" r:id="rId3" location="/job/c7b4f6c8-3d12-4c07-8a4e-8b1da91b11d4" xr:uid="{083B9D4C-1AC8-4C00-9FF1-FBFE12717D11}"/>
-    <hyperlink ref="D6" r:id="rId4" location="/postDetail/1036" xr:uid="{583C97B7-4EF3-4278-9F77-17995B6A9B0A}"/>
-    <hyperlink ref="D5" r:id="rId5" location="/details?id=3792" xr:uid="{4F907DDA-9411-407C-A8E8-1664F7C2E1F5}"/>
+    <hyperlink ref="D5" r:id="rId4" location="/postDetail/1036" xr:uid="{583C97B7-4EF3-4278-9F77-17995B6A9B0A}"/>
+    <hyperlink ref="D4" r:id="rId5" location="/details?id=3792" xr:uid="{4F907DDA-9411-407C-A8E8-1664F7C2E1F5}"/>
     <hyperlink ref="D3" r:id="rId6" xr:uid="{AF46F42B-F490-432E-ADEA-3E8D137223F2}"/>
-    <hyperlink ref="D4" r:id="rId7" location="/myDeliver?type=present" xr:uid="{858D0496-9E22-452B-A722-656E619C45DD}"/>
+    <hyperlink ref="D6" r:id="rId7" location="/myDeliver?type=present" xr:uid="{858D0496-9E22-452B-A722-656E619C45DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2361B81E-CF52-4B54-A196-F4E0C8D416C4}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A95E30-A2D8-4A32-A2D2-04B734DCFEA3}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3609,7 +5248,7 @@
     <col min="7" max="7" width="10.375" style="8" customWidth="1"/>
     <col min="8" max="8" width="10.25" style="8" customWidth="1"/>
     <col min="9" max="9" width="72.25" style="8" customWidth="1"/>
-    <col min="10" max="10" width="39.5" style="41" customWidth="1"/>
+    <col min="10" max="10" width="39.5" style="39" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -3641,833 +5280,8 @@
       <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="49">
-        <v>19</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="49"/>
-    </row>
-    <row r="4" spans="1:11" ht="15">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15">
-      <c r="A5" s="8">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="8">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="41" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="8">
-        <v>7</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="J9" s="41" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="8">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="J10" s="41" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="8">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="J11" s="41" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="8">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="J12" s="41" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A13" s="8">
-        <v>11</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="J13" s="41" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="8">
-        <v>12</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="J14" s="41" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="8">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" s="14">
-        <v>44735</v>
-      </c>
-      <c r="J15" s="41" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15">
-      <c r="A16" s="8">
-        <v>14</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="41" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15">
-      <c r="A17" s="49">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50">
-        <v>44804</v>
-      </c>
-      <c r="I17" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" s="52" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15">
-      <c r="A18" s="49">
-        <v>17</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="52" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="49">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="J19" s="52" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="49" customFormat="1">
-      <c r="A20" s="49">
-        <v>21</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="I20" s="49" t="s">
-        <v>244</v>
-      </c>
-      <c r="J20" s="52" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="49">
-        <v>24</v>
-      </c>
-      <c r="B21" s="49" t="s">
-        <v>238</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E21" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="F21" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="K21" s="49"/>
-    </row>
-    <row r="22" spans="1:11" s="49" customFormat="1">
-      <c r="A22" s="8">
-        <v>24</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="J22" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="1:11" s="49" customFormat="1">
-      <c r="A23" s="8">
-        <v>15</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="J23" s="41"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="49">
-        <v>20</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="49" t="s">
+      <c r="J1" s="36" t="s">
         <v>66</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E24" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="J24" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="K24" s="49"/>
-    </row>
-    <row r="25" spans="1:11" s="49" customFormat="1">
-      <c r="A25" s="16">
-        <v>22</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="16">
-        <v>23</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="47"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="8">
-        <v>24</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G27" s="14">
-        <v>44805</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="8">
-        <v>25</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="8">
-        <v>26</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="G29" s="14">
-        <v>44802</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="8">
-        <v>27</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G30" s="14">
-        <v>44770</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:J24" xr:uid="{810C05E9-B4A5-4012-926B-59988C1A6793}"/>
-  <sortState ref="A2:K26">
-    <sortCondition ref="C1"/>
-  </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 D8" xr:uid="{EE1EE90C-8B0E-41AB-B40F-AB84CE5669BD}">
-      <formula1>"未投, 投递, 笔试, 面试, offer, NG"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{080349A8-D3DE-4B2D-8B0F-AA35DD08C2CF}">
-      <formula1>"正式批,提前批"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{34F333EE-00A1-4A58-9439-3F2ADB31255A}">
-      <formula1>"未开,未投,投递,笔试,面试,offer,NG"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{C989D8CF-AA98-4D52-8600-C6A64515DD46}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{260B01BF-DF83-4A36-B101-89A3684539E5}"/>
-    <hyperlink ref="K5" r:id="rId3" xr:uid="{0861A510-189A-4C5C-851F-9F9994ABBBB3}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{1CD047F7-C03A-48FC-A611-C2470BF7D11A}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{909D4784-0B45-4731-8ECC-A0F6454A470D}"/>
-    <hyperlink ref="D16" r:id="rId6" xr:uid="{37EC7794-D56F-4514-B952-33897469D578}"/>
-    <hyperlink ref="D17" r:id="rId7" xr:uid="{7D57DF09-F123-4686-A915-E870AADF219C}"/>
-    <hyperlink ref="D18" r:id="rId8" location="/job/1d0e3c75-8545-4d41-8e2a-4a1512b1e3e5" xr:uid="{A655E564-E864-46CB-9115-E124EF87E32F}"/>
-    <hyperlink ref="B17" r:id="rId9" xr:uid="{343E4238-98EE-45F0-A999-34D59CAED1E9}"/>
-    <hyperlink ref="B23" r:id="rId10" xr:uid="{55E50B49-B752-4CE6-AE56-F066E353C474}"/>
-    <hyperlink ref="D7" r:id="rId11" location="/job/1654cd4f-081d-4f36-8855-3e30471733a1" xr:uid="{D366F649-A2E8-41D6-A774-A72F06630E30}"/>
-    <hyperlink ref="B7" r:id="rId12" location="/?anchorName=2761416898&amp;sourceToken=" xr:uid="{74BBD345-DDA9-41FC-97A3-FAF535EEDCCC}"/>
-    <hyperlink ref="D2" r:id="rId13" xr:uid="{D3227471-765C-4EB6-8BBB-D6E7D8CC9CE3}"/>
-    <hyperlink ref="D20" r:id="rId14" xr:uid="{14D08B03-D243-466E-BCB6-BFC258EC3528}"/>
-    <hyperlink ref="B20" r:id="rId15" xr:uid="{B5C91043-FFA2-482D-9247-78CA55E2F0AD}"/>
-    <hyperlink ref="B19" r:id="rId16" xr:uid="{E0E4A2A5-80B5-4FE0-BC26-F3274841E5C5}"/>
-    <hyperlink ref="D19" r:id="rId17" xr:uid="{6385D3F7-E7D4-426B-9E6A-4DF0EF5F68AC}"/>
-    <hyperlink ref="D3" r:id="rId18" location="/job/35b92760-03fa-4ce8-be61-8dacbf0ceb71" xr:uid="{12AB5E0D-8BA1-43F3-A7D7-A3EDF2D7C3F5}"/>
-    <hyperlink ref="B24" r:id="rId19" location="/" xr:uid="{7B09DA83-9B58-469F-8EF7-774335104AAA}"/>
-    <hyperlink ref="D11" r:id="rId20" xr:uid="{44C7B1AE-DA1C-413E-825B-1BCB3485F161}"/>
-    <hyperlink ref="D26" r:id="rId21" location="/job/6b6f2ba3-7261-4faa-93b9-244ca3c489e8" xr:uid="{490942B3-7083-49E4-A0BB-5369BA4CD4D4}"/>
-    <hyperlink ref="D25" r:id="rId22" location="/job/7785f274-01a6-4133-8fe1-bcc61f1ea45e" xr:uid="{032F124A-D7F9-41DC-95D7-92FF1BB49CB2}"/>
-    <hyperlink ref="B13" r:id="rId23" location="/" xr:uid="{CFC24B0D-BE78-4A21-8A47-EFF3D7CBA86B}"/>
-    <hyperlink ref="B14" r:id="rId24" xr:uid="{AB3CEDA7-A629-4211-94E9-85899C780EBB}"/>
-    <hyperlink ref="D6" r:id="rId25" xr:uid="{09C935C5-8AE5-4E34-8805-2095A1CE29B2}"/>
-    <hyperlink ref="D15" r:id="rId26" xr:uid="{A7916861-D24F-4516-84D2-AF0E8200C9AB}"/>
-    <hyperlink ref="D14" r:id="rId27" xr:uid="{D22C1A08-C384-417D-9A77-FB2A0E3DA9BB}"/>
-    <hyperlink ref="D12" r:id="rId28" xr:uid="{1BAF7D94-95CB-4826-93E5-754B6F2C1935}"/>
-    <hyperlink ref="D13" r:id="rId29" location="/candidateHome/applications" xr:uid="{89A79E5B-3F7A-4FE9-9893-04E7BB8D63AB}"/>
-    <hyperlink ref="D10" r:id="rId30" location="/job/7f37ff9b-55a8-40ba-9850-0985052682dd/campus_apply/thanks?jobId=7f37ff9b-55a8-40ba-9850-0985052682dd&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;candidateName=%E9%BB%84%E5%85%89%E7%A7%AF&amp;candidateId=365838875" xr:uid="{BA0DD2A1-C1A0-4829-9F5A-5E75021C97C8}"/>
-    <hyperlink ref="D21" r:id="rId31" xr:uid="{913919DA-F83E-46D1-8580-D65E6F9A36F5}"/>
-    <hyperlink ref="D22" r:id="rId32" location="/job/d8e83b4a-03ec-4ba7-9877-f28e890bfb3f" xr:uid="{5C6655C9-F6A0-4C1C-9925-361C509F60C7}"/>
-    <hyperlink ref="D24" r:id="rId33" location="/job/1f4f4624-b83e-4e60-8c66-4b543dd4a36b" xr:uid="{DC38FD47-42B4-422A-86A6-9CB074109A1A}"/>
-    <hyperlink ref="D29" r:id="rId34" xr:uid="{8CF75A7A-BC40-4BB5-9149-6D06C48D3612}"/>
-    <hyperlink ref="B27" r:id="rId35" location="/bluemoon/campus" xr:uid="{00D408A6-22ED-4230-9A71-4BD5568FA644}"/>
-    <hyperlink ref="D27" r:id="rId36" location="/bluemoon/campus/positionDetail?positionId=497569CACABF4CC085524C25C1DC773C" xr:uid="{68761D9C-45DF-4ACD-A74C-C76CC473D46A}"/>
-    <hyperlink ref="B28" r:id="rId37" xr:uid="{007455D3-18D7-483D-908E-1EBA253D727F}"/>
-    <hyperlink ref="D30" r:id="rId38" location="/job/4ed388ea-c5b7-484b-b318-ee2130a86305" xr:uid="{BE10D55F-39EB-472C-BF88-F2D753E96F24}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId39"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A95E30-A2D8-4A32-A2D2-04B734DCFEA3}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="23.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9" style="8"/>
-    <col min="4" max="4" width="22.375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="8" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="8" customWidth="1"/>
-    <col min="9" max="9" width="72.25" style="8" customWidth="1"/>
-    <col min="10" max="10" width="39.5" style="41" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="16.5">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -4475,19 +5289,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>242</v>
+        <v>142</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4495,22 +5309,22 @@
         <v>5</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>275</v>
+        <v>144</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4518,86 +5332,95 @@
         <v>8</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15">
-      <c r="A5" s="8">
+        <v>170</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="47" customFormat="1">
+      <c r="A5" s="47">
+        <v>10</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15">
+      <c r="A6" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="14">
+        <v>44850</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="27" t="s">
         <v>51</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H5" s="14">
-        <v>44850</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="8">
-        <v>3</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="H7" s="14">
-        <v>44795</v>
+        <v>65</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1">
@@ -4605,51 +5428,48 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="8">
-        <v>6</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>101</v>
+        <v>4</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>172</v>
+        <v>65</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="14">
+        <v>44795</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>199</v>
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1">
@@ -4688,77 +5508,114 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:9" s="8" customFormat="1" hidden="1">
+    <row r="17" spans="1:10" hidden="1">
       <c r="A17" s="8">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="8" customFormat="1" hidden="1">
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" hidden="1">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="8" customFormat="1" hidden="1">
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19" s="8">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="8" customFormat="1" hidden="1">
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" s="8">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="8" customFormat="1" hidden="1">
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="8" customFormat="1" hidden="1">
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" hidden="1">
       <c r="A22" s="8">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="8" customFormat="1" hidden="1">
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" hidden="1">
       <c r="A23" s="8">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" s="8" customFormat="1" hidden="1">
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" hidden="1">
       <c r="A24" s="8">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="8" customFormat="1" hidden="1">
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25" s="8">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="8" customFormat="1" hidden="1">
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" hidden="1">
       <c r="A26" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="8">
-        <v>10</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>270</v>
+        <v>9</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>195</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>271</v>
+        <v>201</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>258</v>
+        <v>191</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>272</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="B30" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="H30" s="14">
+        <v>44834</v>
       </c>
     </row>
   </sheetData>
@@ -4769,7 +5626,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:K10">
+  <sortState ref="A2:K27">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4782,34 +5639,35 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{7CE896C8-8A17-4C01-AD91-0F5B0E0414F5}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{7CE896C8-8A17-4C01-AD91-0F5B0E0414F5}"/>
     <hyperlink ref="D4" r:id="rId2" location="/job/aa3d49a2-8c8c-4afa-a747-68e866d5d9dd" xr:uid="{2F52351E-E298-4DF1-9554-8F05353A2258}"/>
     <hyperlink ref="B4" r:id="rId3" location="/jobs?zhineng=46650&amp;page=1" xr:uid="{D5C3A943-FE5C-4BB3-BE74-9029B304C343}"/>
-    <hyperlink ref="K5" r:id="rId4" xr:uid="{2BE36C1C-5614-47B1-99B6-9C17F2FAE4C5}"/>
+    <hyperlink ref="K6" r:id="rId4" xr:uid="{2BE36C1C-5614-47B1-99B6-9C17F2FAE4C5}"/>
     <hyperlink ref="B2" r:id="rId5" xr:uid="{9450B8A9-199C-4BB4-BCCF-A8454E7AB503}"/>
     <hyperlink ref="D2" r:id="rId6" xr:uid="{961ABA4E-2314-4BF0-9875-2BED2DCA9256}"/>
-    <hyperlink ref="D6" r:id="rId7" xr:uid="{F8BDC24A-80B8-48F7-868A-E6786829B0CF}"/>
-    <hyperlink ref="B6" r:id="rId8" xr:uid="{0AC2B173-A0FD-414D-89AB-9E6EF95CEEC7}"/>
-    <hyperlink ref="B7" r:id="rId9" location="/jobs?project=100007057" xr:uid="{6AF86292-C886-4DB2-AE96-F41F2FD5337A}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{F8BDC24A-80B8-48F7-868A-E6786829B0CF}"/>
+    <hyperlink ref="B7" r:id="rId8" xr:uid="{0AC2B173-A0FD-414D-89AB-9E6EF95CEEC7}"/>
+    <hyperlink ref="B9" r:id="rId9" location="/jobs?project=100007057" xr:uid="{6AF86292-C886-4DB2-AE96-F41F2FD5337A}"/>
     <hyperlink ref="B3" r:id="rId10" location="/jobs?zhineng=&amp;page=1&amp;project=100030037" xr:uid="{AA924A62-ADE6-4871-B941-F2A73FAD88B0}"/>
-    <hyperlink ref="D9" r:id="rId11" location="/job/a919cbf5-0267-40a3-8012-1fdfba33c6e2" xr:uid="{A294FA71-BB3D-4BBF-B6A9-1D7A3D1D24F2}"/>
-    <hyperlink ref="B10" r:id="rId12" xr:uid="{7111D4DA-C112-407D-816A-3DAD478EC2B7}"/>
-    <hyperlink ref="D10" r:id="rId13" xr:uid="{88B785DA-EE1C-4C04-A756-6081604E54C4}"/>
-    <hyperlink ref="D27" r:id="rId14" xr:uid="{C00FF699-7C70-4AAF-85A6-C9C19E7C51CC}"/>
+    <hyperlink ref="D10" r:id="rId11" location="/job/a919cbf5-0267-40a3-8012-1fdfba33c6e2" xr:uid="{A294FA71-BB3D-4BBF-B6A9-1D7A3D1D24F2}"/>
+    <hyperlink ref="B27" r:id="rId12" xr:uid="{7111D4DA-C112-407D-816A-3DAD478EC2B7}"/>
+    <hyperlink ref="D27" r:id="rId13" xr:uid="{88B785DA-EE1C-4C04-A756-6081604E54C4}"/>
+    <hyperlink ref="D5" r:id="rId14" xr:uid="{C00FF699-7C70-4AAF-85A6-C9C19E7C51CC}"/>
+    <hyperlink ref="D29" r:id="rId15" location="/jobDetail/46dcc1e9-6b48-492c-81aa-510d5fd5de1e/390506267?WorkingPlace=%E6%B7%B1%E5%9C%B3%E5%B8%82" xr:uid="{5746C3E1-C23C-4726-AE36-A75E5D45B14F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId16"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9DF2BD-82B3-4BC6-8649-92ABCE40CD73}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="A1:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4856,7 +5714,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4864,16 +5722,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4881,16 +5739,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4898,16 +5756,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4915,16 +5773,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G5" s="14">
         <v>44789</v>
@@ -4935,10 +5793,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:10" hidden="1">
@@ -4946,10 +5804,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:10" hidden="1">
@@ -4957,10 +5815,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:10" hidden="1">
@@ -4968,10 +5826,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:10" hidden="1">
@@ -5009,64 +5867,69 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" hidden="1">
+    <row r="17" spans="1:2" hidden="1">
       <c r="A17" s="8">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" hidden="1">
+    <row r="18" spans="1:2" hidden="1">
       <c r="A18" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" hidden="1">
+    <row r="19" spans="1:2" hidden="1">
       <c r="A19" s="8">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" hidden="1">
+    <row r="20" spans="1:2" hidden="1">
       <c r="A20" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" hidden="1">
+    <row r="21" spans="1:2" hidden="1">
       <c r="A21" s="8">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" hidden="1">
+    <row r="22" spans="1:2" hidden="1">
       <c r="A22" s="8">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" hidden="1">
+    <row r="23" spans="1:2" hidden="1">
       <c r="A23" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" hidden="1">
+    <row r="24" spans="1:2" hidden="1">
       <c r="A24" s="8">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" hidden="1">
+    <row r="25" spans="1:2" hidden="1">
       <c r="A25" s="8">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" hidden="1">
+    <row r="26" spans="1:2" hidden="1">
       <c r="A26" s="8">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" hidden="1">
+    <row r="27" spans="1:2" hidden="1">
       <c r="A27" s="8">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" hidden="1">
+    <row r="28" spans="1:2" hidden="1">
       <c r="A28" s="8">
         <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" s="8" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -5103,7 +5966,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5150,7 +6013,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="12" customFormat="1" ht="15">
@@ -5158,29 +6021,43 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" s="10"/>
+        <v>130</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="12"/>
+      <c r="B3" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="12"/>
@@ -5375,6 +6252,7 @@
     <hyperlink ref="D2" r:id="rId2" xr:uid="{D9CDD474-0765-464C-A8A8-D7E28792371D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5384,7 +6262,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5431,7 +6309,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -5439,19 +6317,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5459,25 +6337,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="F3" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G3" s="14">
         <v>44734</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5485,10 +6363,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5496,10 +6374,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5507,10 +6385,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5518,28 +6396,49 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="8">
         <v>7</v>
       </c>
+      <c r="B8" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="8">
         <v>8</v>
       </c>
+      <c r="B9" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="H9" s="14">
+        <v>44844</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="8">
         <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5650,6 +6549,7 @@
     <hyperlink ref="B3" r:id="rId4" xr:uid="{EAE15551-8DE9-4A1F-BF76-665B571642A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -5665,7 +6565,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
